--- a/data/hotels_by_city/Houston/Houston_shard_47.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_47.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="739">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d116265-Reviews-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Plus-North-Houston-Inn-Suites.h473618.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2099 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r589211349-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>116265</t>
+  </si>
+  <si>
+    <t>589211349</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Quiet and great staff</t>
+  </si>
+  <si>
+    <t>I was able to get a good price on a good room. In the morning, Gloria helped us with directions on where we needed to get even though the Houston traffic. The rooms were nice and quiet and the breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>I was able to get a good price on a good room. In the morning, Gloria helped us with directions on where we needed to get even though the Houston traffic. The rooms were nice and quiet and the breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r581790536-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581790536</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Just okay!</t>
+  </si>
+  <si>
+    <t>This hotel was alright for one night, but I don't see how anyone could stay there more than that!  The location is good, just off the freeway and next to a cracker barrel and whataburger and jack in the box.  Especially since the hotels breakfast is from 6am - 9am, we stayed a Sat night and were not planning on getting up before 8 so we missed it!  Bed and pillows were comfortable.  Carpet in the rooms could use an update. This was our 2nd time staying at this hotel, the first time we had a room that smelled of stale cigarette smoke, but this one did not.  One thing that left me curious, only a mirror in the restroom, not another in the room...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was alright for one night, but I don't see how anyone could stay there more than that!  The location is good, just off the freeway and next to a cracker barrel and whataburger and jack in the box.  Especially since the hotels breakfast is from 6am - 9am, we stayed a Sat night and were not planning on getting up before 8 so we missed it!  Bed and pillows were comfortable.  Carpet in the rooms could use an update. This was our 2nd time staying at this hotel, the first time we had a room that smelled of stale cigarette smoke, but this one did not.  One thing that left me curious, only a mirror in the restroom, not another in the room...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r581437289-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581437289</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Great staff and place to stay</t>
+  </si>
+  <si>
+    <t>Lilian and Gloria were really nice and made the process very easy and quick. The hotel was very quiet and clean and the pool was nice to get into. The beds were comfy and tidy. They also have security at night which makes me feel safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lilian and Gloria were really nice and made the process very easy and quick. The hotel was very quiet and clean and the pool was nice to get into. The beds were comfy and tidy. They also have security at night which makes me feel safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r570625022-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570625022</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Much better than expected!</t>
+  </si>
+  <si>
+    <t>I stayed to prevent driving home only to turn around and be at my brother's by 7am to drive to an out of town funeral. The area where the hotel is located can be a little sketchy (close to Greenspoint) but there was no problem - security present, good lighting, no loitering by anyone.  I ended up feeling very secure.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jig P, Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>I stayed to prevent driving home only to turn around and be at my brother's by 7am to drive to an out of town funeral. The area where the hotel is located can be a little sketchy (close to Greenspoint) but there was no problem - security present, good lighting, no loitering by anyone.  I ended up feeling very secure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r565352753-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565352753</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Simple but adequate</t>
+  </si>
+  <si>
+    <t>We were a little concerned when we saw that Bestway had a 2 rating. But let me tell you - it was clean &amp; recently updated to the point that it far exceeded our previous stay at an Extended Stay. Price couldn’t be beat. Satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>We were a little concerned when we saw that Bestway had a 2 rating. But let me tell you - it was clean &amp; recently updated to the point that it far exceeded our previous stay at an Extended Stay. Price couldn’t be beat. Satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r565275117-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565275117</t>
+  </si>
+  <si>
+    <t>The Best Place to Stay</t>
+  </si>
+  <si>
+    <t>This is the best place to stay in Houston. The staff is wonderful. From management to the front desk to housekeeping. You won’t find better service anywhere else. This is a clean, well maintained property. Thank you Jig, Gloria, Lillian, Brenda, Maria and everybody else for making my stay enjoyable every time. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is the best place to stay in Houston. The staff is wonderful. From management to the front desk to housekeeping. You won’t find better service anywhere else. This is a clean, well maintained property. Thank you Jig, Gloria, Lillian, Brenda, Maria and everybody else for making my stay enjoyable every time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r551071321-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551071321</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Nice Spot for a Quick Stay</t>
+  </si>
+  <si>
+    <t>This place was in a great location for me. It was 5 minutes away from the venue that I needed to attend. The bed was not as plush but it did sleep good. The room's heater was the best and heated the room up nicely. The breakfast was good with good options. The staff were friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>This place was in a great location for me. It was 5 minutes away from the venue that I needed to attend. The bed was not as plush but it did sleep good. The room's heater was the best and heated the room up nicely. The breakfast was good with good options. The staff were friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r547457327-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547457327</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>A Good Place to Stay!</t>
+  </si>
+  <si>
+    <t>We found this hotel to be a good place to stay while in Houston.  It was very clean and well while our money!  We would recommend to all who may be traveling for business or pleasure!  we plan to use this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We found this hotel to be a good place to stay while in Houston.  It was very clean and well while our money!  We would recommend to all who may be traveling for business or pleasure!  we plan to use this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r544935215-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544935215</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>good people</t>
+  </si>
+  <si>
+    <t>very helpful people at front desk, even the new ones this is an older place and its been kept up well...jnhbuvygctrdxsezsrxdtcyvubvtcrtzxerctvuybiniubyvtrcfexzw4rextrctvbyvctxdezw44rextrcytvbvycfxz4w4erx5trcytvbvcr5xe4zw..i hate writing reviews but this place is nice for the price., cvybuni,jkhvc,,yutr.ygutft..uhygftdretdyug..ihtrtyfgh87g67fdetf..jhgtf6d56rftMoreShow less</t>
+  </si>
+  <si>
+    <t>very helpful people at front desk, even the new ones this is an older place and its been kept up well...jnhbuvygctrdxsezsrxdtcyvubvtcrtzxerctvuybiniubyvtrcfexzw4rextrctvbyvctxdezw44rextrcytvbvycfxz4w4erx5trcytvbvcr5xe4zw..i hate writing reviews but this place is nice for the price., cvybuni,jkhvc,,yutr.ygutft..uhygftdretdyug..ihtrtyfgh87g67fdetf..jhgtf6d56rftMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r536321599-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536321599</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Great Place to stay in North Houston</t>
+  </si>
+  <si>
+    <t>The hotel was easy access along I-45.  All staff were professional and helpful.  The room was well appointed with a King bed, fridge and microwave.  Breakfast had a good variety of hot and cold items to eat.  Overall a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>The hotel was easy access along I-45.  All staff were professional and helpful.  The room was well appointed with a King bed, fridge and microwave.  Breakfast had a good variety of hot and cold items to eat.  Overall a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r535268366-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535268366</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>The deal that I received through the Best Western website was a great rate. When I arrived to the hotel the staff was friendly and inviting. The breakfast selections were awesome and fresh daily Overall the hotel is great if you need to grab a room for a week to getaway or just leisure you should go to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>The deal that I received through the Best Western website was a great rate. When I arrived to the hotel the staff was friendly and inviting. The breakfast selections were awesome and fresh daily Overall the hotel is great if you need to grab a room for a week to getaway or just leisure you should go to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r534046955-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534046955</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>ORIORDANT</t>
+  </si>
+  <si>
+    <t>We stayed here one night.(29th.)  We have stayed here many times. We were checked in  by the same receptionist as before, friendly and efficient. Our room was on the 2nd. floor,  becoming a little dated up here. We would prefer the third floor. We enjoyed our breakfast in the morning. The previous night the receptionist was most helpful allowing me to use her cell phone.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We stayed here one night.(29th.)  We have stayed here many times. We were checked in  by the same receptionist as before, friendly and efficient. Our room was on the 2nd. floor,  becoming a little dated up here. We would prefer the third floor. We enjoyed our breakfast in the morning. The previous night the receptionist was most helpful allowing me to use her cell phone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r528414710-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528414710</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>lobby is welcoming. Front desk staff is friendly. A stack of todays newspaper is on the table in the lobby, easy to grab and take to your room. The room is comfortable and spacious. The ability to control your own room temperature is nice. Swimming pool is refreshing. Hotel is close to many restaurants. Easy access to the interstate. Will stay again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r513156805-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513156805</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Nice place! Great service! The employees (from the front desk to security) all treated me with respect while also treating me like someone special. I would recommend this hotel to anyone visiting the area!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r510165466-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510165466</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Staff  friendly,and  very helpful.</t>
+  </si>
+  <si>
+    <t>I'm appreciate; all the help by the staff, given me. I had three meeting; that day. and a good night sleep. Boy! You can't buy that kind of experience without  the outstanding help of the staff. I'll be back to this hotel very time I'm in Houston. A great place for business traveler.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r503601308-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503601308</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Great place to park and fly</t>
+  </si>
+  <si>
+    <t>This is a very clean hotel with helpful staff. We had an early flight from Hobby and stayed here. They allowed us park our vehicle for up to 7 nights. The shuttle took us to the airport and picked us up when we returned, so we didn't have to deal with airport traffic. We felt very safe at this location. We left before breakfast started, so can't address that part.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r503053375-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503053375</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>My Review</t>
+  </si>
+  <si>
+    <t>Overall, it is a nice and safe hotel! The staff is extremely friendly! I did have an issue with the phone in my room. I could not adequately hear when I used it. I also asked for a wake up call that I did not receive. I will say on the other hand the price of the room and the friendliness of the staff made up for any of the issues I may have encountered with the room's phone!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r499645329-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499645329</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>I love this place, come here once or twice a month to relax with my old man. Get away from kids and just relax  and be ablessed to sleep without being bothered by the kids for once.  I enjoy my stay every month.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r493774430-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493774430</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Still new, but just another Worst Western</t>
+  </si>
+  <si>
+    <t>Front desk staff was okay.  Their work area was clean, but looked like nobody lived there.  The place is new, so it hasn't had time to run down yet.
+   The elevator is tiny and SLOOOWWW.  I actually couldn't find it at first.  It is so small you think it's just another room in the hallway.  The room is quiet enough, and the bed is comfortable enough, although Best Western always uses pillows that are just the wrong size -- too thick to use two of them, too thin to use just one.  Bathroom and room are comfortable and clean.
+   Breakfast appears to have good selection at first blush, but when you look closer you find that the eggs are synthetic, the ham is stale, and it isn't butter in those little packets.  It's synthetic (and probably cancer inducing) "spread."  I got downstairs at 8:30 and got the last banana.  Don't know if there were other fresh fruits available or not.
+   There was a TV on in the nice, small, brightly lit breakfast area.  At least it was tuned to something innocuous (Good Morning America or similar vapidness)
+   The place is a little hard to get to.  You're coming down the feeder of I-45 and you see the Cracker Barrel on your right, and you go past it and turn in, only to find that you are still in Cracker Barrel parking lot.  The hotel is actually behind a small office...Front desk staff was okay.  Their work area was clean, but looked like nobody lived there.  The place is new, so it hasn't had time to run down yet.   The elevator is tiny and SLOOOWWW.  I actually couldn't find it at first.  It is so small you think it's just another room in the hallway.  The room is quiet enough, and the bed is comfortable enough, although Best Western always uses pillows that are just the wrong size -- too thick to use two of them, too thin to use just one.  Bathroom and room are comfortable and clean.   Breakfast appears to have good selection at first blush, but when you look closer you find that the eggs are synthetic, the ham is stale, and it isn't butter in those little packets.  It's synthetic (and probably cancer inducing) "spread."  I got downstairs at 8:30 and got the last banana.  Don't know if there were other fresh fruits available or not.   There was a TV on in the nice, small, brightly lit breakfast area.  At least it was tuned to something innocuous (Good Morning America or similar vapidness)   The place is a little hard to get to.  You're coming down the feeder of I-45 and you see the Cracker Barrel on your right, and you go past it and turn in, only to find that you are still in Cracker Barrel parking lot.  The hotel is actually behind a small office complex that includes a doctor's clinic, so set back 50 - 100 yards from the access road.  This helps reduce the noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk staff was okay.  Their work area was clean, but looked like nobody lived there.  The place is new, so it hasn't had time to run down yet.
+   The elevator is tiny and SLOOOWWW.  I actually couldn't find it at first.  It is so small you think it's just another room in the hallway.  The room is quiet enough, and the bed is comfortable enough, although Best Western always uses pillows that are just the wrong size -- too thick to use two of them, too thin to use just one.  Bathroom and room are comfortable and clean.
+   Breakfast appears to have good selection at first blush, but when you look closer you find that the eggs are synthetic, the ham is stale, and it isn't butter in those little packets.  It's synthetic (and probably cancer inducing) "spread."  I got downstairs at 8:30 and got the last banana.  Don't know if there were other fresh fruits available or not.
+   There was a TV on in the nice, small, brightly lit breakfast area.  At least it was tuned to something innocuous (Good Morning America or similar vapidness)
+   The place is a little hard to get to.  You're coming down the feeder of I-45 and you see the Cracker Barrel on your right, and you go past it and turn in, only to find that you are still in Cracker Barrel parking lot.  The hotel is actually behind a small office...Front desk staff was okay.  Their work area was clean, but looked like nobody lived there.  The place is new, so it hasn't had time to run down yet.   The elevator is tiny and SLOOOWWW.  I actually couldn't find it at first.  It is so small you think it's just another room in the hallway.  The room is quiet enough, and the bed is comfortable enough, although Best Western always uses pillows that are just the wrong size -- too thick to use two of them, too thin to use just one.  Bathroom and room are comfortable and clean.   Breakfast appears to have good selection at first blush, but when you look closer you find that the eggs are synthetic, the ham is stale, and it isn't butter in those little packets.  It's synthetic (and probably cancer inducing) "spread."  I got downstairs at 8:30 and got the last banana.  Don't know if there were other fresh fruits available or not.   There was a TV on in the nice, small, brightly lit breakfast area.  At least it was tuned to something innocuous (Good Morning America or similar vapidness)   The place is a little hard to get to.  You're coming down the feeder of I-45 and you see the Cracker Barrel on your right, and you go past it and turn in, only to find that you are still in Cracker Barrel parking lot.  The hotel is actually behind a small office complex that includes a doctor's clinic, so set back 50 - 100 yards from the access road.  This helps reduce the noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r493546063-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493546063</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Great stay, great price</t>
+  </si>
+  <si>
+    <t>Needed a hotel for a quick trip to bring daughter to airport and see husband's boss. Room was clean and spacious. All of the hotel was clean, convenient, inexpensive, and had a very friendly staff. Easy check in and out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r493189426-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493189426</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>best stay ever!</t>
+  </si>
+  <si>
+    <t>the room was very clean and neat. i would definitely recommend this hotel to anyone i know. the staff was very nice and helpful also very friendly. breakfast was a very tasty and everything was neatly organized.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r477787049-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477787049</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Very clean! Great value!</t>
+  </si>
+  <si>
+    <t>Great, great, great! Will definitely stay again! Very clean rooms! I still cleaned with clorox wipes &amp; sprayed my bed with Lysol, but I didn't find any traces of "dirty"! Matresses are enveloped in mattress covers so I was glad not to have to worry bout bugs!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r472562331-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472562331</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Quick Getaway</t>
+  </si>
+  <si>
+    <t>Very nice hotel in a great location with competitive rates. A hot breakfast is also included with your stay, which is a nice plus. Location and quality are what makes this hotel an option on the top of my list.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r471853834-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471853834</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Stress Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love my room and the cleanliness of it.  Relax mode!!! from work and all the everyday stuff.  I am able to enjoy my me time all the time. I enjoy my stay at BW once or twice a month, love my time here </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r465922874-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465922874</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>You will be happy here</t>
+  </si>
+  <si>
+    <t>A very nice motel and we enjoyed our stay.  Our single-king room was very clean, well sized for an overnight stay, with a comfortable bed.  The staff were very friendly plus they offer a very good breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r463900103-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463900103</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Clean good breakfast great rate</t>
+  </si>
+  <si>
+    <t>Front desk staff were good. Had great good recommendations and directions easy to follow! I was a last minute booking and they got me in at a great rate. Breakfast was clean and excellent coffee. Which is rare in a buffet ! Thx!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r463632164-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463632164</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Friendly and Honest Staff</t>
+  </si>
+  <si>
+    <t>My friend unknowingly left something of value and the hotel found it and called us letting us know that it was there and to just come pick it up when you can. The manager setup my group up with great rooms and prices. Check-in was easy. Breakfast was decent (a typical continental breakfast). Wifi was good throughout the building.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r448896006-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448896006</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Peacefully quiet hidden retreat</t>
+  </si>
+  <si>
+    <t>This hotel is hidden behind other businesses and hotels but was well worth the few days I spent there for respite. The room 204 was quiet and with it being so close to the interstate I did not think it was possible!!! Breakfast was great and so was the staff!!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r447497550-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447497550</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was awesome! Gloria was fantastic! The check in was extremely fast. I was able to get into my room early which was great because I hadn't slept in 30 hours when I arrived. The service was exceptional. The room are very inviting and clean. It was very quiet and I slept very well. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r439018455-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439018455</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Happy with just about everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only down about the location was not enough room for breakfast had to wait for a table... But that's no big deal.    I would recommend the location to anyone looking for a place it was very convenient for us... Close to the venue we were attending the mall is close!!! </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r427253107-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427253107</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Very Helpful Staff</t>
+  </si>
+  <si>
+    <t>The place was very nice and clean, I did enjoy the breakfast with the waffle and omelet makers. Gloria was very kind and great with directions and Lillian was really sweet. The hotel is very quiet and near by where I needed to be close to my family.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r426546205-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426546205</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent service at an excellent price.</t>
+  </si>
+  <si>
+    <t>Excellent value, very clean and pleasant.  Easily accessible to the highway.  Breakfast was all inclusive with many selections to make.  The Coffee was excellent.  Was able to use their computer and print off forms needed for a meeting at no extra cost.  The rooms were remodeled and were very pleasant.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r423919375-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423919375</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>I always search diligently for hotels that are reasonable, not in bad areas, appear to be well maintained, etc. This was my first stay at the BEST WESTERN PLUS North Houston Inn &amp; Suites and it was great! I was there two days on business and everything was great! Would like to see just a few more choices of hot foods at breakfast but really a very minor thing. Very clean and I was VERY pleasantly surprised at how quiet it was. Usually walking down the halls of some hotels you can hear people talking, TV's on, etc...I heard none of that. I had left my TV on when I went to get ice and I could not hear it until I re-entered the room. Very well maintained and nice area as well. Great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>I always search diligently for hotels that are reasonable, not in bad areas, appear to be well maintained, etc. This was my first stay at the BEST WESTERN PLUS North Houston Inn &amp; Suites and it was great! I was there two days on business and everything was great! Would like to see just a few more choices of hot foods at breakfast but really a very minor thing. Very clean and I was VERY pleasantly surprised at how quiet it was. Usually walking down the halls of some hotels you can hear people talking, TV's on, etc...I heard none of that. I had left my TV on when I went to get ice and I could not hear it until I re-entered the room. Very well maintained and nice area as well. Great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r420462691-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420462691</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderful, Quiet Stay</t>
+  </si>
+  <si>
+    <t>The rooms were very quiet and clean. I forgot the name of the girl who checked me in and out but she was very polite and helpful during my stay and was able to recommend to close by restaurants. Every time I walked by the lobby, she greeted me with a smile.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r419581503-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419581503</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>"Amazing staff and good location"</t>
+  </si>
+  <si>
+    <t>My only complaint was the door frame sizes, because it was kind of tricky to get the cart through the door ways of the hotel , elevator, and room door, but my experience however was beyond amazing. I stayed in this hotel for a total of five days alone for college requirements and I would gladly return. The ladies at the front desk were so helpful and courteous , especially Gloria and Guadalupe. I was new to the location and was extremely worried about where the locations I needed to go were located, but Gloria gave me not only verbal but written directions as well. She completely alleviated all my concerns about the neighborhood while the other staff members (Lillian, Acucena , and Roxann ) catered to all my needs whether that was needing more towels or answering any of the "many" questions I may have had during my stay. Guadalupe at the front desk took upon herself to go the extra mile for me and would call my room every time someone was coming up to my room to make sure they were suppose to be there. These ladies kept me safe and gave me a sense of security which to me is priceless .The room and hotel was in excellent condition and smelled wonderful every day. If I have to go back to Houston this would be my number one choice and it wouldn't because it was the...My only complaint was the door frame sizes, because it was kind of tricky to get the cart through the door ways of the hotel , elevator, and room door, but my experience however was beyond amazing. I stayed in this hotel for a total of five days alone for college requirements and I would gladly return. The ladies at the front desk were so helpful and courteous , especially Gloria and Guadalupe. I was new to the location and was extremely worried about where the locations I needed to go were located, but Gloria gave me not only verbal but written directions as well. She completely alleviated all my concerns about the neighborhood while the other staff members (Lillian, Acucena , and Roxann ) catered to all my needs whether that was needing more towels or answering any of the "many" questions I may have had during my stay. Guadalupe at the front desk took upon herself to go the extra mile for me and would call my room every time someone was coming up to my room to make sure they were suppose to be there. These ladies kept me safe and gave me a sense of security which to me is priceless .The room and hotel was in excellent condition and smelled wonderful every day. If I have to go back to Houston this would be my number one choice and it wouldn't because it was the best hotel ever but because the staff was indeed the best I've ever seen.MoreShow less</t>
+  </si>
+  <si>
+    <t>My only complaint was the door frame sizes, because it was kind of tricky to get the cart through the door ways of the hotel , elevator, and room door, but my experience however was beyond amazing. I stayed in this hotel for a total of five days alone for college requirements and I would gladly return. The ladies at the front desk were so helpful and courteous , especially Gloria and Guadalupe. I was new to the location and was extremely worried about where the locations I needed to go were located, but Gloria gave me not only verbal but written directions as well. She completely alleviated all my concerns about the neighborhood while the other staff members (Lillian, Acucena , and Roxann ) catered to all my needs whether that was needing more towels or answering any of the "many" questions I may have had during my stay. Guadalupe at the front desk took upon herself to go the extra mile for me and would call my room every time someone was coming up to my room to make sure they were suppose to be there. These ladies kept me safe and gave me a sense of security which to me is priceless .The room and hotel was in excellent condition and smelled wonderful every day. If I have to go back to Houston this would be my number one choice and it wouldn't because it was the...My only complaint was the door frame sizes, because it was kind of tricky to get the cart through the door ways of the hotel , elevator, and room door, but my experience however was beyond amazing. I stayed in this hotel for a total of five days alone for college requirements and I would gladly return. The ladies at the front desk were so helpful and courteous , especially Gloria and Guadalupe. I was new to the location and was extremely worried about where the locations I needed to go were located, but Gloria gave me not only verbal but written directions as well. She completely alleviated all my concerns about the neighborhood while the other staff members (Lillian, Acucena , and Roxann ) catered to all my needs whether that was needing more towels or answering any of the "many" questions I may have had during my stay. Guadalupe at the front desk took upon herself to go the extra mile for me and would call my room every time someone was coming up to my room to make sure they were suppose to be there. These ladies kept me safe and gave me a sense of security which to me is priceless .The room and hotel was in excellent condition and smelled wonderful every day. If I have to go back to Houston this would be my number one choice and it wouldn't because it was the best hotel ever but because the staff was indeed the best I've ever seen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r416989426-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416989426</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>quite restful hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel.easy check in .has security in parking lot.walk to resturant and large parking lot.only problem was waiting for water to get hot in shower.check out was a little disappointing.could not get a printed copy of my  bill had to wait and have it sent to my email .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r392583395-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392583395</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Wondeful Staff</t>
+  </si>
+  <si>
+    <t>I was calling the hotel trying to reserve a room but the phones were down. I was finally able to get in and Guadalupe at the front desk was just so helpful. She greeted me as soon as I walked in and had a smile on her face the whole time. She took interest on my day and got me into a room. About 20 minutes after in checked in she called my room to ensure it was up to my standards, and every time i went in and out of the main door she greeted me as though it was my first time. She made such an impact on my day and I will definitely be coming back. The hotel itself is currently under being renovated but is beautiful and the breakfast is wonderful also. Guadalupe, Thank you for providing great customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I was calling the hotel trying to reserve a room but the phones were down. I was finally able to get in and Guadalupe at the front desk was just so helpful. She greeted me as soon as I walked in and had a smile on her face the whole time. She took interest on my day and got me into a room. About 20 minutes after in checked in she called my room to ensure it was up to my standards, and every time i went in and out of the main door she greeted me as though it was my first time. She made such an impact on my day and I will definitely be coming back. The hotel itself is currently under being renovated but is beautiful and the breakfast is wonderful also. Guadalupe, Thank you for providing great customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r390259492-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390259492</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Mr Jason M</t>
+  </si>
+  <si>
+    <t>This Best Western is amazing. They always have the cleanest rooms and the service is excellent. Lupe and Gloria who work the front desk are so kind, helpful and very pleasant. I regularly  stay here when in business in Houston and recommend it to all my friends and business partners. They are truly a 5 star hotel. Thank you Lupe for always putting customers first and remembering who we are and what our hotel preferences are.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r388274489-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388274489</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Best experience ever</t>
+  </si>
+  <si>
+    <t>All rooms were quite clean, breakfast was also delicious, all personnel very kind and polite in special Ms. Gloria.Internet is free and fast speed, pool is also nice.It would be nice if there were a shuttle to/from airport.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r383267198-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383267198</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>nice  stay</t>
+  </si>
+  <si>
+    <t>Our family stayed in two rooms on the first floor... nice rooms, clean.. the motel is far enough away from I-45 to keep it quiet.. Cracker Barrel right next door .. good breakfast.. good value. modern</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r381026980-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381026980</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Pleasant and quiet stay</t>
+  </si>
+  <si>
+    <t>We needed a hotel close to Bush International in Houston and found this Best Western. It was not only close  (10 min. away from airport) but it was clean, quiet, and inexpensive (about 1/2 the price of other hotels near the airport). The staff was great and the breakfast was very good and inexpensive (free). WE highly recommend this hotel and will stay there the next time we fly out of Houston.  P &amp; S</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r378857544-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378857544</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely fabulous hotel. The hotel desk clerk Gloria was the most gracious and out going person. She was the most fabulous person to check in with after a very long day of travel. I have to say that she for sure   Convinced me to rebook a stay here on the return trip home. Thank you Gloria for a wonderful stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r372265681-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372265681</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>nice stay at bestwestern plus inns and suites Houston, TX</t>
+  </si>
+  <si>
+    <t>No complaints.  Staff was really friendly and attentive to my needs and Ii was completely satisfied with my stay.  TV was not plugged in in the back but this was immediately remedied by maintenance.  Room was clean and smoke free.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jig P, Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>No complaints.  Staff was really friendly and attentive to my needs and Ii was completely satisfied with my stay.  TV was not plugged in in the back but this was immediately remedied by maintenance.  Room was clean and smoke free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r362885218-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362885218</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Breakfast was great! Azucena was helpful in that area. Gloria at front desk was pleasant and professional. Rooms were clean, beds comfy. When microwave wasn't working in our room, it was replaced within 10 minutes of call. Will gladly stay here if I'm back in Houston!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r362862466-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362862466</t>
+  </si>
+  <si>
+    <t>Great Staff, Great Hotel.</t>
+  </si>
+  <si>
+    <t>Lupe, Gloria and lilian were great. The hotel is in great conditions and the whole staff is amazing. They're all very helpful. The breakfast has great selection and it alternates every morning which is great. Will absolutely be staying again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r361613350-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361613350</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Foreman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got great service from Gloria Lupe. Everyone here is extra courteous and professional. The rooms are always clean and the bed is exceptional. Would definitely recommend this place. So if you're ever in the area, this is a great reasonable place. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r357833162-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357833162</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Gloria and Robert were great!</t>
+  </si>
+  <si>
+    <t>Gloria really helped us out on Friday because we did not have a reservation but the hotel didn't have any doubles. She was able to place us in a suite for the same price I found online. The rooms were great too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r357730578-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357730578</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff friendly. The beds were comfortable enough. However the room had things that would suggest disrepair over the years. The AC unit didn't stay cold and the room had an odor that seemed musty. The pool was closed without any type of notice listed when we booked (&amp;it was one of the reasons I selected this location). Not the quality I expect from Best Western.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r356041561-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356041561</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Good room, not so good breakfast or location</t>
+  </si>
+  <si>
+    <t>The room was good - I've been upgraded for free to their suite which was large and nice. Their breakfast wasn't so good, only eggs and waffles.. No yogurt or any other "healthier" option..The hotel is located about 20 minutes from the airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r350410585-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350410585</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Love the staff there!</t>
+  </si>
+  <si>
+    <t>Lupe was extremely helpful in securing my business and as a business person myself, I understand it can be a very competitive market out there. Her and the entire staff do a great job. Cracker Barrel is next door so you can grab a big breakfast. Also, Whataburger and Jack in the box is in walking distance.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r348953457-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348953457</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is a great clean place. The room I was booked in was very clean and the staff were friendly as well as polite. The front desk Guadalupe was a great front desk on helping me figure out great places to eat around the hotel. She checked me into my room fast and took care of any complaints very well. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r345440513-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345440513</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>ok place to stay</t>
+  </si>
+  <si>
+    <t>Nice place to stay in North Houston. Whataburger in the same parking lot. Not to far from Greenspoint Mall. Near the Bush International Airport, I-45 and the Loop 8. Room was comfy and clean. Can't comment about the breakfast since I ate breakfast at Whataburger</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r341592697-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341592697</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>You will NOT be disappointed!</t>
+  </si>
+  <si>
+    <t>Awesome place, very clean! Staff outstanding - friendly, helpful, you feel welcomed! We were here a year ago, and was very happy with our stay, the reason we booked here again this year. Amazed to see, that they remembered us. We saw they have updated Lobby and breakfast area! Place smells fresh and clean. Close to airport! We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jig P, General Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Awesome place, very clean! Staff outstanding - friendly, helpful, you feel welcomed! We were here a year ago, and was very happy with our stay, the reason we booked here again this year. Amazed to see, that they remembered us. We saw they have updated Lobby and breakfast area! Place smells fresh and clean. Close to airport! We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r341055646-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341055646</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel to stay for the northern Houston area. Friendly staff Gloria and Lupe and convenient access to restaurants and the free way. Offers a well lit and secure parking area and I noticed officers park at the Crocker Barrel over night. I would stay here again when needed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r330084686-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330084686</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>It was ok for one night</t>
+  </si>
+  <si>
+    <t>We stayed for one night in the jacuzzi suite. Although all of the jets didnt work in the tub which kind of defeated the purpose the bed was really comfortable and I was too tired to care. We went with a group we were allowed late check out but the 2nd half of our group wasnt which ended our trip and stay early</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r327302663-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327302663</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Late reservation and check in</t>
+  </si>
+  <si>
+    <t>We decided late Tuesday to spend the night close to the airport in Houston. Four ladies flying out early to Hawaii.  This hotel offered everything we needed to be ready for our flight arrival with a good nights sleep and breakfast. Very courteous staff and comfy accommodations. Only 10 minutes from the airport. .MoreShow less</t>
+  </si>
+  <si>
+    <t>Jig P, General Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded November 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2015</t>
+  </si>
+  <si>
+    <t>We decided late Tuesday to spend the night close to the airport in Houston. Four ladies flying out early to Hawaii.  This hotel offered everything we needed to be ready for our flight arrival with a good nights sleep and breakfast. Very courteous staff and comfy accommodations. Only 10 minutes from the airport. .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r324862988-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324862988</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>We arrived to this hotel late one evening, we were checked in by a pleasant young lady. Our room was clean and comfortable. We had a pleasant two day stay here and actually returned three weeks later for a one night stay and were checked in by the same young lady who remembered us. The breakfast was adequate and was kept well stocked. Not a lot to do in this area but shops and restaurants are a short drive away.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We arrived to this hotel late one evening, we were checked in by a pleasant young lady. Our room was clean and comfortable. We had a pleasant two day stay here and actually returned three weeks later for a one night stay and were checked in by the same young lady who remembered us. The breakfast was adequate and was kept well stocked. Not a lot to do in this area but shops and restaurants are a short drive away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r323054796-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323054796</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Visit to Houston for a nice room</t>
+  </si>
+  <si>
+    <t>The rooms were nice and the beds were comfortable. The shower curtain rod was about to fall out of the wall. Great TV's and lots of programming to find something to watch. Did not use the pool as it was too cool to take a dip outside. Breakfast was ok as the eggs were ok and the cheese in it tasted cheap, but the hot sauce made them edible. The bacon was sliced too thin. Coffee in the rooms was not a very good flavor. Over all on getting an online price it was a decent room for the price. They do have free Wi-Fi if you want to use it but I did not.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were nice and the beds were comfortable. The shower curtain rod was about to fall out of the wall. Great TV's and lots of programming to find something to watch. Did not use the pool as it was too cool to take a dip outside. Breakfast was ok as the eggs were ok and the cheese in it tasted cheap, but the hot sauce made them edible. The bacon was sliced too thin. Coffee in the rooms was not a very good flavor. Over all on getting an online price it was a decent room for the price. They do have free Wi-Fi if you want to use it but I did not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r322163898-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322163898</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Very Hospitable</t>
+  </si>
+  <si>
+    <t>Nice breakfast bar. Azucena is very polite and always helpful &amp; kept food fresh &amp; plentiful. WIFI is almost always down when we stay there - every time..... Our group stays at this hotel 2 weeks a year for several years for conferences.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r321507797-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321507797</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Overall, an enjoyable awards stay</t>
+  </si>
+  <si>
+    <t>I cashed in Best Western reward points for this stay.  The only room available was a handicapped room.  The room and furnishings were comfortable, but the bathroom was problematic.  The floor only slopes towards the drain on the shower side.  As a result there was an inordinate amount of standing water on the floor after using the shower.  While this was acceptable given it was a free room, I would have been very upset if I had to pay over $100 for the night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r317452817-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317452817</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>I had a comfortable stay and have found this and other Best Western Plus locations to be a high quality and a great value.  While I was only here for one night, I would stay for a longer trip and found it to be conveniently located outside of downtown.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r317104378-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317104378</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>The clerk named Gloria was very helpful and considerate!</t>
+  </si>
+  <si>
+    <t>Our flight was in late afternoon. Gloria kindly allowed us to extend our stay beyond the normal check-out time at 11am. The hotel was also not far from either airport or downtown business area. We would probably book it again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r316752857-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316752857</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Brian's Trip</t>
+  </si>
+  <si>
+    <t>Service is average, Breakfast was average, Hotel Clerk was not very attentive, the particular room we stayed in had a odor when the air-conditioner was running, the bathroom door didn't lock, the outside appearance is nice, the lobby and the breakfast areas was clean, easy access to I-45 and Beltway 8</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r298785386-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298785386</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Not so nice stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night only. First we got a wrong room (smoking room) and then we could not have the room we had the reservation for. Breakfast was the basic pancakes and jam -version. Hotel location was not nice, they did not have any transportation for the city or anywhere else. No restaurants nearby.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r288535918-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288535918</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Descent hotel in a convenient location</t>
+  </si>
+  <si>
+    <t>Hotel was fine and basically as described on the website.  Our room was large and the beds were comfortable.  The air conditioner had a gross smell and did not get the room very cold, leaving it kind of muggy. But it was tolerable.  The pool was nice, but closed too early (9:30 pm) for our group to be able to use it being that we did not get back to the room until 9:15 pm.  It would be nice if breakfast hours were extended on the weekends (ends at 9:30 am) until closer to check out time (11 am).  We slept in and missed it. The location is convenient with tons of restaurants nearby to choose from. Overall, it is a descent hotel and suited our needs for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Hotel was fine and basically as described on the website.  Our room was large and the beds were comfortable.  The air conditioner had a gross smell and did not get the room very cold, leaving it kind of muggy. But it was tolerable.  The pool was nice, but closed too early (9:30 pm) for our group to be able to use it being that we did not get back to the room until 9:15 pm.  It would be nice if breakfast hours were extended on the weekends (ends at 9:30 am) until closer to check out time (11 am).  We slept in and missed it. The location is convenient with tons of restaurants nearby to choose from. Overall, it is a descent hotel and suited our needs for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r288397357-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288397357</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel in bad Area</t>
+  </si>
+  <si>
+    <t>The hotel is everything you would expect. It is what it says on the packet. The room is very big and clean.   Internet can be bad if your room is too far away from the Wifi point. I was in room 301 and connection was horrible. Make sure you get a room nearer to reception where internet is excellent.   Breakfast is typical for this kind of American Hotel (typically horrible). Not suitable for my German taste buds. However, there is a very good place for breakfast just 2 minutes walk away across the car park if you don't mind to spend $14. it is so worth it.   The "Bad Area":  Not the fault of the hotel. It is just that the hotel is located in an area where you should not walk around - night nor day. So I was told by local restaurants near by. That leaves you no choice but to drive around the block for dinner. Not ideal if you want a glass of red or two with your dinner as you have to drive back.  As a German, i like to walk to places - even in the heat - if not too far. But not possible here.   Other then that, I had a very good stay. Staff is very friendly and the hotel is very clean.  If you don't mind driving and if you don't mind the breakfast, I can recommend this place any time....The hotel is everything you would expect. It is what it says on the packet. The room is very big and clean.   Internet can be bad if your room is too far away from the Wifi point. I was in room 301 and connection was horrible. Make sure you get a room nearer to reception where internet is excellent.   Breakfast is typical for this kind of American Hotel (typically horrible). Not suitable for my German taste buds. However, there is a very good place for breakfast just 2 minutes walk away across the car park if you don't mind to spend $14. it is so worth it.   The "Bad Area":  Not the fault of the hotel. It is just that the hotel is located in an area where you should not walk around - night nor day. So I was told by local restaurants near by. That leaves you no choice but to drive around the block for dinner. Not ideal if you want a glass of red or two with your dinner as you have to drive back.  As a German, i like to walk to places - even in the heat - if not too far. But not possible here.   Other then that, I had a very good stay. Staff is very friendly and the hotel is very clean.  If you don't mind driving and if you don't mind the breakfast, I can recommend this place any time.   Oh, I almost forgot the reason why I chose this hotel in the first place: You can get smoking rooms. How good is that!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is everything you would expect. It is what it says on the packet. The room is very big and clean.   Internet can be bad if your room is too far away from the Wifi point. I was in room 301 and connection was horrible. Make sure you get a room nearer to reception where internet is excellent.   Breakfast is typical for this kind of American Hotel (typically horrible). Not suitable for my German taste buds. However, there is a very good place for breakfast just 2 minutes walk away across the car park if you don't mind to spend $14. it is so worth it.   The "Bad Area":  Not the fault of the hotel. It is just that the hotel is located in an area where you should not walk around - night nor day. So I was told by local restaurants near by. That leaves you no choice but to drive around the block for dinner. Not ideal if you want a glass of red or two with your dinner as you have to drive back.  As a German, i like to walk to places - even in the heat - if not too far. But not possible here.   Other then that, I had a very good stay. Staff is very friendly and the hotel is very clean.  If you don't mind driving and if you don't mind the breakfast, I can recommend this place any time....The hotel is everything you would expect. It is what it says on the packet. The room is very big and clean.   Internet can be bad if your room is too far away from the Wifi point. I was in room 301 and connection was horrible. Make sure you get a room nearer to reception where internet is excellent.   Breakfast is typical for this kind of American Hotel (typically horrible). Not suitable for my German taste buds. However, there is a very good place for breakfast just 2 minutes walk away across the car park if you don't mind to spend $14. it is so worth it.   The "Bad Area":  Not the fault of the hotel. It is just that the hotel is located in an area where you should not walk around - night nor day. So I was told by local restaurants near by. That leaves you no choice but to drive around the block for dinner. Not ideal if you want a glass of red or two with your dinner as you have to drive back.  As a German, i like to walk to places - even in the heat - if not too far. But not possible here.   Other then that, I had a very good stay. Staff is very friendly and the hotel is very clean.  If you don't mind driving and if you don't mind the breakfast, I can recommend this place any time.   Oh, I almost forgot the reason why I chose this hotel in the first place: You can get smoking rooms. How good is that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r281282755-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281282755</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>MAIDS ARE THIEFS.</t>
+  </si>
+  <si>
+    <t>checkout was 11am we had left our rooms at 10am came back at 1030 because we forgot to grab something WE DIDNT TELL ANYONE WE WERE CHECKING OUT but a maid had already went in there because the pillows and blankets were removed and our belonging was missing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r275821696-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275821696</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Azucena from the breakfast room was very friendly and attentive, always allowing a little extra time for late comers... The coffee at this hotel was the best of all the hotels we stayed at this trip!The only downside at this hotel was that the cleaning staff, especially their boss, Mario, constantly knocked at our door, urging us to leave the room. Once he even barged into the room, with the two of us inside! Very rude indeed!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r273839585-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273839585</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>We came from Pennsylvania for the Ironman Triathalon. Our rooms were beautiful. Everybody that worked at the hotel, no matter in what capacity, were very nice. We got to know the lady that was in charge of the breakfast, Azucena. She was very sweet. Our grandkids enjoyed the swimming pool, also. The rooms were kept very clean and we never needed anything. If we were to come to this area again, we would definitely stay there. Thank you to everyone that took such good care of us!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r268744559-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268744559</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>They cancelled my reservation!!!</t>
+  </si>
+  <si>
+    <t>I arrived in Houston from Frankfurt Germany.  Six hours later my connecting flight was cancelled due to bad weather in Houston.  I am a Best Western Rewards member so I called their 800 number to book a room.  I informed the agent that I would probably not get to the hotel before 3AM due to all of the lines at the airport.  I had a confirmation number so when I finally left the airport at 2:30AM I was happy to find that the hotel was only a short drive from the airport.  My happiness disappeared when we walked in the door only to be told that there were no rooms.  The hotel had cancelled my reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I arrived in Houston from Frankfurt Germany.  Six hours later my connecting flight was cancelled due to bad weather in Houston.  I am a Best Western Rewards member so I called their 800 number to book a room.  I informed the agent that I would probably not get to the hotel before 3AM due to all of the lines at the airport.  I had a confirmation number so when I finally left the airport at 2:30AM I was happy to find that the hotel was only a short drive from the airport.  My happiness disappeared when we walked in the door only to be told that there were no rooms.  The hotel had cancelled my reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r265598434-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265598434</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Top Hotel, Top Service!</t>
+  </si>
+  <si>
+    <t>The Hotel is in a top condition, the staff is very friendly and helped us in every kind of question/ request. Breakfast area is absolutely nice and the high-table is just like at home - perfect! The rooms are quiet, with big beds, big TV (a lot of programs to choose), nice bathroom. Free parking and internet and a good location for a fast access to the interstate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r261909295-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261909295</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>A Great Stay</t>
+  </si>
+  <si>
+    <t>From the very start of our stay at the GT Weston the room was clean staff very helpful. Quiet stay good night sleep. They have breakfast for you. The next day we went across the road to the old Cracker Barrel where the food was very good. Would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r253631192-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253631192</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>For the purposes of my stay, I found the hotel and staff top of the line. Continental breakfasts are fairly generic, however, I have found a menu that works. There are several colleagues that have commenced staying at this particular Best Western. Again, thank you for your service.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r252536578-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252536578</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Good Value for my $</t>
+  </si>
+  <si>
+    <t>We have stayed in this particular hotel the last few times we have come to Houston and will continue to stay there in future visits.  This was a value for our $.  Several well known nearby restaurants. Convenient location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r249667194-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249667194</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Clean Room /nice staff</t>
+  </si>
+  <si>
+    <t>The front desk staff was very nice and the rooms were clean and comfortable. They did rush me to leave the room at check out. that was very unprofessional, i talked to the front desk and they tried to fix the problem. I enjoyed the breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r244773449-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244773449</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>My Stay</t>
+  </si>
+  <si>
+    <t>Overall for the price this hotel was convenient, clean and the personnel was nice. When we go back to Houston in a few months I would definitely consider staying at this hotel because chance are we will be visiting family in that area. Look forward to going in the summer because the pool looked nice.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r240922320-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240922320</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Great time</t>
+  </si>
+  <si>
+    <t>They upgraded us when we arrived . The young lady at counter that checked us in was WONDERFUL. We laghed and Joked. Great arrival. Our breakfast was hot eggs and sauasge and we also had SWEET waffles. Awesome, with yogurt and a bagel. Our sheets were fresh scent and very nicely organized. I would stay again at this location if we are in the area again. Ohthe maintenance man, made it a point to talk to me in the hallway instead of just walking past me.I thought that was pretty cool.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r236560536-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236560536</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Huge Rooms</t>
+  </si>
+  <si>
+    <t>Overall a great place for the price. Friendly staff. The room was huge with a king size bed and living room area. Free breaksfast was above average. Nice pool. Room was cleaned everyday and was clean upon arrival. Defintly stay here again.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r218985993-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218985993</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Extended Stay for Track Competition</t>
+  </si>
+  <si>
+    <t>Great rate, good access to freeways, clean and super internet all made for a comfortable stay during a week of competition in Houston in July (HOT!).  The staff was very friendly and the lady in charge of breakfast went out of her way to make sure my son had a piece of fruit before he competed.  I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r218597636-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218597636</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Good location, friendly staff, comfortable and clean rooms. Cracker Barrel restaurant in the same parking lot, 3 fast food restaurants in walking distance, and a host of other restaurants within a mile. I've stayed here before and I would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r216518356-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216518356</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Needs Help</t>
+  </si>
+  <si>
+    <t>Our room had an extreme odor; never should have been assigned to anyone. The bathroom floor was sticky. The breakfast was cold. The hotel is old and needs to be gutted and redone inside. We will not stay here again nor recommend it to anyone. I ended up with a bad sinus infection.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jig P, General Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Our room had an extreme odor; never should have been assigned to anyone. The bathroom floor was sticky. The breakfast was cold. The hotel is old and needs to be gutted and redone inside. We will not stay here again nor recommend it to anyone. I ended up with a bad sinus infection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r209503018-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209503018</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>GREAT STAY!</t>
+  </si>
+  <si>
+    <t>Rented a few rooms for a surprise birthday gathering for my 9yr old.  We have always recieved good service but this time was especially great and made it a point to take names.  Jake and Shay were friendly and extremly helpful. They totally made our stay a great one.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r208711621-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208711621</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for nearly a week on vacation.  Rooms are nice and beyond my expectations.  Breakfast is excellent; loved the Texas shaped waffles.  Service was excellent.  Location is close to restaurants, gas stations and easy access to I-45.  Close to airport too.  Not too far from Houston and took a little under an hour to get to Galveston.  Attractions are minimum 20 minutes away; not bad but better than paying downtown rates.  Good head start to get to Dallas.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r204365297-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204365297</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Not too shabby!</t>
+  </si>
+  <si>
+    <t>Nice clean hotel. My room had a little bit of a strange smell when entering but it wasn't too bad and I got used to it pretty quick. Beds were comfortable with plenty of pillows of various softness. More movie channels than I've ever seen in any hotel, ever. Breakfast was ok, coffee was good and price was reasonable. Surrounded by plenty of good restaurants and Papacitas is right around the corner. I'll stay here again...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r200549207-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200549207</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>We were very pleased with this hotel. Our room was very clean and I thought the price was economical for the accommodations. It was just a little north of the city, so it was a good location for us. We would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r199343922-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199343922</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>NW Houston for Business</t>
+  </si>
+  <si>
+    <t>Great place to stay for any business or pleaseure trip that involves needing to stay in the NW Houston area. The rooms are large and comfortable, the area secure and while the hotel is just off the interstate, it's far enough away so freeway noise isn't a problem.  A variety of restaurents are close by. IAH probably less than 15 minutes.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r197800031-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197800031</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Continue to stay here</t>
+  </si>
+  <si>
+    <t>Good value for the money. Near restaurants, etc. Near the office, only about 2.5 miles. No need to even get on the freeway. Staff is friendly and always ready to help. Breakfast is usually pretty good, or there is something to have if the main choice is not to one's liking. TV channels were recently upgraded and improved. The TVs are larger and better than the ones at Hilton. The internet is faster than at Hilton and easier to access. Last stay at Hilton I was never able to get past the logon screen because it kept timing out.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r190903723-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190903723</t>
+  </si>
+  <si>
+    <t>01/14/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Enjoy the stay here. Rooms are quiet and comfortable even when so close to the freeway. Rooms are a bit dated but the value is good for me.  Staff is very friendly.  Breakfast is also pretty good with cereal, bagels, waffles, etc. There is also a Cracker Barrel right next door as well as Whataburger, Popeye's, JIB, and other restaurants within a short driving distance. Salt Grass, Pappasita's, Olive Garden will open Jan. 27, Zio's Italian, another Mexican food place I can't remember, and many others.  Very convenient to my work with only 5 minute drive on the feeder road each way.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r189571822-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189571822</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>bad mattress</t>
+  </si>
+  <si>
+    <t>i have stayed at this hotel many times before, the service has went down hill. the breakfast could have been better. look like they are cutting back on the food,  the mattress on the bed hurt my back for 3 nights, other than that the staff was very pleasant and the room was quiet, i dont think i will be going back, i love the holiday inn express,</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r186136928-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186136928</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Best Hotel Northparkcentral area Houston</t>
+  </si>
+  <si>
+    <t>Best Western is convenient and the staff are really fast and efficient in getting you checked in and checked out.  The hotel is clean and far enough from the interstate that you do not have the traffic noise.  There are several restaurants near by for meals.  The entrance and parking are easy and adequate that you don't have to be concerned with parking your car.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Neil P, General Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Best Western is convenient and the staff are really fast and efficient in getting you checked in and checked out.  The hotel is clean and far enough from the interstate that you do not have the traffic noise.  There are several restaurants near by for meals.  The entrance and parking are easy and adequate that you don't have to be concerned with parking your car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r178297095-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178297095</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Quick stay with no surprises.</t>
+  </si>
+  <si>
+    <t>My fiance and I stayed here for one night after a late arrival flight from Calgary.  We were planning to head to Austin the next day so we wanted something clsoe to airport and that we could use Airmiles to book.  This Best Western was a short drive from IAH airport and the hotel was clean and comfortable.  There was lots of options for a quick bite to eat nearby.  The shower pressure was good though th bathroom could use a bit of an upgrade.  The toilet was very smal which was kind of funny (When we sat down we were laughing because it felt like using a kids toilet).  We didnt check out the breakfast in the morning because we wanted to hit the road but it looked ok.  When checking out there was no one at the front desk and we wait for about 10 minutes and finally just left the keys on the counter.All in all not the swankiest place in Houston but it worked well for us and the best part was we were able to use Airmiles to book so the price was right ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My fiance and I stayed here for one night after a late arrival flight from Calgary.  We were planning to head to Austin the next day so we wanted something clsoe to airport and that we could use Airmiles to book.  This Best Western was a short drive from IAH airport and the hotel was clean and comfortable.  There was lots of options for a quick bite to eat nearby.  The shower pressure was good though th bathroom could use a bit of an upgrade.  The toilet was very smal which was kind of funny (When we sat down we were laughing because it felt like using a kids toilet).  We didnt check out the breakfast in the morning because we wanted to hit the road but it looked ok.  When checking out there was no one at the front desk and we wait for about 10 minutes and finally just left the keys on the counter.All in all not the swankiest place in Houston but it worked well for us and the best part was we were able to use Airmiles to book so the price was right ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r174058716-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174058716</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Best Western - North Houston</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel twice in the last 6 weeks and have been very pleased with both visits. The staff are friendly and helpful, the facility and the rooms have been clean.  They have a free hot breakfast that includes scrambled eggs and there is Belgian waffle maker so you can make your own waffle. Easy access on and off of I-45. Several nearby restaurants, including a Cracker Barrel right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Neil P, General Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded August 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel twice in the last 6 weeks and have been very pleased with both visits. The staff are friendly and helpful, the facility and the rooms have been clean.  They have a free hot breakfast that includes scrambled eggs and there is Belgian waffle maker so you can make your own waffle. Easy access on and off of I-45. Several nearby restaurants, including a Cracker Barrel right next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r173110065-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173110065</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Great quality for the price!</t>
+  </si>
+  <si>
+    <t>I come here on business about twice a month. The staff are helpful and friendly. The overall quality of the hotel and upkeep are excellent. The breakfast items including waffles, bagels, breads, flour tortillas, eggs, sausage, bacon and many condiments. This is a great location to Hwy 45 and access to the airport and other destinations. I would highly recommend this for business travelers because of the convenience, reasonable price, and great quality. The landscaping on the grounds are always manicured and nicely done. They also have  a nice exercise facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil P, Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded August 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2013</t>
+  </si>
+  <si>
+    <t>I come here on business about twice a month. The staff are helpful and friendly. The overall quality of the hotel and upkeep are excellent. The breakfast items including waffles, bagels, breads, flour tortillas, eggs, sausage, bacon and many condiments. This is a great location to Hwy 45 and access to the airport and other destinations. I would highly recommend this for business travelers because of the convenience, reasonable price, and great quality. The landscaping on the grounds are always manicured and nicely done. They also have  a nice exercise facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r171059528-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171059528</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Amenities in Rooms did not Work!</t>
+  </si>
+  <si>
+    <t>Outside of the hotel all day and night smelled like Marijuana. In the room, a lot of the amenities did not work such as the telephone, bathroom door lock, bathroom outlet, and some lamps. The shower head in the tub was way too high to adjust when even taking a shower. However, the breakfast was great in which they offered a lot of products. For the amount I paid, I rather stay at another high end hotel nearby.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r170527586-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170527586</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly and helped with any needs that you had.  The only bad thing really about this hotel is that the smoking rooms were on the other opposite end of the hall so the non smokers could still smell the smoke in the hall.  I just wish they would put the smokers on a completely different floor.  Because if you don't smoke that could really give you a headache.  Although you can not smell the smoke in your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil P, Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly and helped with any needs that you had.  The only bad thing really about this hotel is that the smoking rooms were on the other opposite end of the hall so the non smokers could still smell the smoke in the hall.  I just wish they would put the smokers on a completely different floor.  Because if you don't smoke that could really give you a headache.  Although you can not smell the smoke in your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r170527814-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170527814</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed at this Best Western for a couple of nights while on vacation.  The overall experience was great.  The room was clean, the bed was comfortable and we enjoyed our time there.  Cracker Barrel &amp; Whataburger are right next door.  We walked to Cracker Barrel &amp; ate there for supper one evening since we didn't want to get out in all the traffic.  My husband ate breakfast and was completely satisfied with their selections.  Since I'm not an early riser, my only complaint was they quit serving breakfast at 9 am.  If the opportunity presents itself, we will stay at this Best Western again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed at this Best Western for a couple of nights while on vacation.  The overall experience was great.  The room was clean, the bed was comfortable and we enjoyed our time there.  Cracker Barrel &amp; Whataburger are right next door.  We walked to Cracker Barrel &amp; ate there for supper one evening since we didn't want to get out in all the traffic.  My husband ate breakfast and was completely satisfied with their selections.  Since I'm not an early riser, my only complaint was they quit serving breakfast at 9 am.  If the opportunity presents itself, we will stay at this Best Western again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r168498747-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168498747</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>due to smell and wet mildew in room</t>
+  </si>
+  <si>
+    <t>its poor due to when I went to report the ac was liking water in to the room and all the carpet was wet and it smelled like wet mildew and he looked for a room but the ones that were available was not going to be of confort for my family and I had travel over 6hours for not rest well...and he didn't even ask me if he could relocate us to another hotel ...in the morning I woke up with a bad headache and an upset stomach.. poor service and judgement call on your clerkMoreShow less</t>
+  </si>
+  <si>
+    <t>Neil P, General Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>its poor due to when I went to report the ac was liking water in to the room and all the carpet was wet and it smelled like wet mildew and he looked for a room but the ones that were available was not going to be of confort for my family and I had travel over 6hours for not rest well...and he didn't even ask me if he could relocate us to another hotel ...in the morning I woke up with a bad headache and an upset stomach.. poor service and judgement call on your clerkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r168003913-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168003913</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>Accessible it ain't</t>
+  </si>
+  <si>
+    <t>Paid extra for accessible room.  Besides the closet rod being lowered, I am not sure what it was about this room that made it accessible over a regular room.  The front door was impossible to open myself, the carpeting difficult to run my wheelchair over.  The tub had an extra grab bar but not a barrier-free shower so that was disappointing as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil P, General Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded July 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2013</t>
+  </si>
+  <si>
+    <t>Paid extra for accessible room.  Besides the closet rod being lowered, I am not sure what it was about this room that made it accessible over a regular room.  The front door was impossible to open myself, the carpeting difficult to run my wheelchair over.  The tub had an extra grab bar but not a barrier-free shower so that was disappointing as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r166285558-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166285558</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Surprisingly Impressed</t>
+  </si>
+  <si>
+    <t>This hotel is not in the best of neighborhoods, but I was very impressed with our stay.  First impressions - very clean lobby and friendly, fast service.  We were checked in in less than five minutes.  The room was so spacious as well as nice and clean and cold AC.  The bed was extremely comfy (we had a King).  Location is close to downtown (about 15 min.) and to the North side (about 10 min).  The price was incredible at $69 a night (3 night special).  The only down side was some of the clients seemed shady.  We enjoyed the pool, but most of the chairs were broken and need to be replaced.  We tried the breakfast one morning - it was tasty.  If you don't want their breakfast, there is a Cracker Barrel right next door.  I would definitely stay here again.  I stayed at another Best Western Plus in downtown Kansas City, MO - I was impressed there too.  I think Best Western Plus is a good way to go to save money to do other fun things.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Neil P, Manager at Best Western Plus North Houston Inn &amp; Suites, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is not in the best of neighborhoods, but I was very impressed with our stay.  First impressions - very clean lobby and friendly, fast service.  We were checked in in less than five minutes.  The room was so spacious as well as nice and clean and cold AC.  The bed was extremely comfy (we had a King).  Location is close to downtown (about 15 min.) and to the North side (about 10 min).  The price was incredible at $69 a night (3 night special).  The only down side was some of the clients seemed shady.  We enjoyed the pool, but most of the chairs were broken and need to be replaced.  We tried the breakfast one morning - it was tasty.  If you don't want their breakfast, there is a Cracker Barrel right next door.  I would definitely stay here again.  I stayed at another Best Western Plus in downtown Kansas City, MO - I was impressed there too.  I think Best Western Plus is a good way to go to save money to do other fun things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r158948175-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158948175</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Decent hotel, watch where you park</t>
+  </si>
+  <si>
+    <t>I stayed here for one night on a personal business trip recently.  I chose it because it was the least expensive of the surrounding Best Westerns that were close to the location I needed.  The outside/entrance is very nice, although I will say I'm pretty upset that the outside overnight sprinklers left hard water spots on my car's windshield and hood from where I parked overnight (next to grass/flowers), and I'm not sure they'll come out.  My room was nice, had a sitting area in addition to sleeping area and bathroom, as well as a fridge.  Nice big TV.  Only things that bothered me about the room were: noise level from room next door (very thin walls and guys yelling at a basketball game), a non-working iron, and a stray hair in the corner of the bathtub (I always think, if they didn't clean the bathtub well, what else didn't they clean well?).  I did tell the front desk clerk about the noisy neighbors and asked if maybe I could change rooms, but he said they were sold out "so you all are just going to have to become friends."  Once the game was over, the noise level did thankfully decrease.  I did use the fitness room/center the next morning, and could not get the treadmill to work correctly (it wouldn't turn on, then when finally got it to working, the incline wouldn't go down from max setting); I asked...I stayed here for one night on a personal business trip recently.  I chose it because it was the least expensive of the surrounding Best Westerns that were close to the location I needed.  The outside/entrance is very nice, although I will say I'm pretty upset that the outside overnight sprinklers left hard water spots on my car's windshield and hood from where I parked overnight (next to grass/flowers), and I'm not sure they'll come out.  My room was nice, had a sitting area in addition to sleeping area and bathroom, as well as a fridge.  Nice big TV.  Only things that bothered me about the room were: noise level from room next door (very thin walls and guys yelling at a basketball game), a non-working iron, and a stray hair in the corner of the bathtub (I always think, if they didn't clean the bathtub well, what else didn't they clean well?).  I did tell the front desk clerk about the noisy neighbors and asked if maybe I could change rooms, but he said they were sold out "so you all are just going to have to become friends."  Once the game was over, the noise level did thankfully decrease.  I did use the fitness room/center the next morning, and could not get the treadmill to work correctly (it wouldn't turn on, then when finally got it to working, the incline wouldn't go down from max setting); I asked front desk clerk for help but he said he had no idea, had never used it and didn't know how to make it operate correctly.  I ended up using the stationary bike and elliptical instead.  Breakfast was kind of disappointing; the "eggs" they had were some weird kind of egg product spongy substance, and they only had white bread for toast instead of wheat.  Very limited fruit (just small apples).  It's a decent hotel, but you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for one night on a personal business trip recently.  I chose it because it was the least expensive of the surrounding Best Westerns that were close to the location I needed.  The outside/entrance is very nice, although I will say I'm pretty upset that the outside overnight sprinklers left hard water spots on my car's windshield and hood from where I parked overnight (next to grass/flowers), and I'm not sure they'll come out.  My room was nice, had a sitting area in addition to sleeping area and bathroom, as well as a fridge.  Nice big TV.  Only things that bothered me about the room were: noise level from room next door (very thin walls and guys yelling at a basketball game), a non-working iron, and a stray hair in the corner of the bathtub (I always think, if they didn't clean the bathtub well, what else didn't they clean well?).  I did tell the front desk clerk about the noisy neighbors and asked if maybe I could change rooms, but he said they were sold out "so you all are just going to have to become friends."  Once the game was over, the noise level did thankfully decrease.  I did use the fitness room/center the next morning, and could not get the treadmill to work correctly (it wouldn't turn on, then when finally got it to working, the incline wouldn't go down from max setting); I asked...I stayed here for one night on a personal business trip recently.  I chose it because it was the least expensive of the surrounding Best Westerns that were close to the location I needed.  The outside/entrance is very nice, although I will say I'm pretty upset that the outside overnight sprinklers left hard water spots on my car's windshield and hood from where I parked overnight (next to grass/flowers), and I'm not sure they'll come out.  My room was nice, had a sitting area in addition to sleeping area and bathroom, as well as a fridge.  Nice big TV.  Only things that bothered me about the room were: noise level from room next door (very thin walls and guys yelling at a basketball game), a non-working iron, and a stray hair in the corner of the bathtub (I always think, if they didn't clean the bathtub well, what else didn't they clean well?).  I did tell the front desk clerk about the noisy neighbors and asked if maybe I could change rooms, but he said they were sold out "so you all are just going to have to become friends."  Once the game was over, the noise level did thankfully decrease.  I did use the fitness room/center the next morning, and could not get the treadmill to work correctly (it wouldn't turn on, then when finally got it to working, the incline wouldn't go down from max setting); I asked front desk clerk for help but he said he had no idea, had never used it and didn't know how to make it operate correctly.  I ended up using the stationary bike and elliptical instead.  Breakfast was kind of disappointing; the "eggs" they had were some weird kind of egg product spongy substance, and they only had white bread for toast instead of wheat.  Very limited fruit (just small apples).  It's a decent hotel, but you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r158132175-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158132175</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Woodlands Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was quite helpful and the price for the great room was a deal. The staff work with me arranging a future stay. The location was good for s in North Houston and the Woodlands. Will be back...      </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r158060788-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158060788</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>I had a very nice front desk person help me with the resevation Her Name is Tuesday she went out of her way to make me feel very welcome have stayed there on several occations because of her and serveral employees way of making you feel at home.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r155120322-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155120322</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Nice job with the remodel!  Good place to stay.</t>
+  </si>
+  <si>
+    <t>So after trusting my fellow Trip Advisor members, I booked this place for my stay on a trip to The Woodlands.  It's out of the way for Houston Hobby, but nicely close to Bush.  The hotel has been recently remodeled, and is very nice.  There are still the usual issues for me, like the door on the South side having an issue with the closer. The latch was most of the way unscrewed (that's nearly dead for you Princess Bride people).  The rooms are nicely decorated, as is the whole hotel following the remodel.  If it weren't for staying in a 4 star hotel the night before, this 2 star would seem more appealing.  The Wi-Fi is OK.  I dropped a couple of Face Time calls with my wife.  The air conditioner is quiet.  The room has a microwave, iron, ironing board, and fridge.  The paint, carpet, chairs, and bed are all very nice.  The TV is cheap (dynex), but is a widescreen high def, as advertised.  Otherwise, it's exactly what you'd expect of a Best Western, with the exception that it's next to a Cracker Barrel, and a Popeyes, Whataburger, Jack in the Box, and a Church's chicken.  It's a good bargain, and a nice place to stay in north Houston.  I don't know that I'd stay here again, but that's not the fault of the hotel, just of the area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>So after trusting my fellow Trip Advisor members, I booked this place for my stay on a trip to The Woodlands.  It's out of the way for Houston Hobby, but nicely close to Bush.  The hotel has been recently remodeled, and is very nice.  There are still the usual issues for me, like the door on the South side having an issue with the closer. The latch was most of the way unscrewed (that's nearly dead for you Princess Bride people).  The rooms are nicely decorated, as is the whole hotel following the remodel.  If it weren't for staying in a 4 star hotel the night before, this 2 star would seem more appealing.  The Wi-Fi is OK.  I dropped a couple of Face Time calls with my wife.  The air conditioner is quiet.  The room has a microwave, iron, ironing board, and fridge.  The paint, carpet, chairs, and bed are all very nice.  The TV is cheap (dynex), but is a widescreen high def, as advertised.  Otherwise, it's exactly what you'd expect of a Best Western, with the exception that it's next to a Cracker Barrel, and a Popeyes, Whataburger, Jack in the Box, and a Church's chicken.  It's a good bargain, and a nice place to stay in north Houston.  I don't know that I'd stay here again, but that's not the fault of the hotel, just of the area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r154430298-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154430298</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r153852777-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153852777</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Feb stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am staying for business. I like the rooms and sleep well. I would like to have better cable. Some of channels ate fuzzy or the tv has to be turned up all the way. Stayed one night in handy cap room and when I took a shower the floor flooded. The breakfast is very good!  </t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r143578294-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143578294</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel with cracker barrel close by.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is a good stay. They have clean updated rooms with all amenities. There are fast food places within walking distance as well as a cracker barrel. The only downfall is limited parking. Located off i45 just north of beltway. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r143405165-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143405165</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>A GEM OF A FIND!</t>
+  </si>
+  <si>
+    <t>We were flying back to the UK on the Tuesday, and wanted to stay fairly near the airport Monday night.  We had a fairly stressful through Houston rush hour traffic and pulled off at this junction.  We enquired at a Holiday Inn Express - but it was too expensive.  I then walked over to the Best Western.  It was very reasonably price for the night - but I also had a voucher - which they honoured.  This was a beautiful hotel - it looked fairly new.  Tuesday (the young girl on reception) was so helpful and polite.  I asked for a room overlooking the back (a field) and she was happy to do her best and gave us a room at the back.  There was an amazing sunset that evening - and I was able to watch the "blood-orange sky" from our room.  We then walked over to The Cracker Barrell restaurant which was a few yards away.  We have been travelling around The States since the early 90's and have never tried a Cracker Barrell - what a delight we have missed.  We didn't want to get in the car to find somewhere to eat so went here.  It had a lovely, welcoming atmosphere and the food was absolutely delicious.  We had an extremely kind and efficient waitress.  I had pork (soooo tender) cooked in an apple and cranberry sauce - lovely vegetables - yum!  Back to the hotel;...We were flying back to the UK on the Tuesday, and wanted to stay fairly near the airport Monday night.  We had a fairly stressful through Houston rush hour traffic and pulled off at this junction.  We enquired at a Holiday Inn Express - but it was too expensive.  I then walked over to the Best Western.  It was very reasonably price for the night - but I also had a voucher - which they honoured.  This was a beautiful hotel - it looked fairly new.  Tuesday (the young girl on reception) was so helpful and polite.  I asked for a room overlooking the back (a field) and she was happy to do her best and gave us a room at the back.  There was an amazing sunset that evening - and I was able to watch the "blood-orange sky" from our room.  We then walked over to The Cracker Barrell restaurant which was a few yards away.  We have been travelling around The States since the early 90's and have never tried a Cracker Barrell - what a delight we have missed.  We didn't want to get in the car to find somewhere to eat so went here.  It had a lovely, welcoming atmosphere and the food was absolutely delicious.  We had an extremely kind and efficient waitress.  I had pork (soooo tender) cooked in an apple and cranberry sauce - lovely vegetables - yum!  Back to the hotel; The room was very clean, the business center excellent with 2 computers and a printer.  The breakfast eating area good - again very clean - and there was a really neat pool area outside, nicely landscaped and surrounded by a pretty wrought iron fence.  The carpark was secure at the back.  I would have liked to have stayed an extra night here, but sadly our 3 week vacation was drawing to a close and we had to leave for the airport in the morning.  If you get the service we did, I can't recommend this Best Western highly enough!  Thank you for looking after us Tuesday.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>We were flying back to the UK on the Tuesday, and wanted to stay fairly near the airport Monday night.  We had a fairly stressful through Houston rush hour traffic and pulled off at this junction.  We enquired at a Holiday Inn Express - but it was too expensive.  I then walked over to the Best Western.  It was very reasonably price for the night - but I also had a voucher - which they honoured.  This was a beautiful hotel - it looked fairly new.  Tuesday (the young girl on reception) was so helpful and polite.  I asked for a room overlooking the back (a field) and she was happy to do her best and gave us a room at the back.  There was an amazing sunset that evening - and I was able to watch the "blood-orange sky" from our room.  We then walked over to The Cracker Barrell restaurant which was a few yards away.  We have been travelling around The States since the early 90's and have never tried a Cracker Barrell - what a delight we have missed.  We didn't want to get in the car to find somewhere to eat so went here.  It had a lovely, welcoming atmosphere and the food was absolutely delicious.  We had an extremely kind and efficient waitress.  I had pork (soooo tender) cooked in an apple and cranberry sauce - lovely vegetables - yum!  Back to the hotel;...We were flying back to the UK on the Tuesday, and wanted to stay fairly near the airport Monday night.  We had a fairly stressful through Houston rush hour traffic and pulled off at this junction.  We enquired at a Holiday Inn Express - but it was too expensive.  I then walked over to the Best Western.  It was very reasonably price for the night - but I also had a voucher - which they honoured.  This was a beautiful hotel - it looked fairly new.  Tuesday (the young girl on reception) was so helpful and polite.  I asked for a room overlooking the back (a field) and she was happy to do her best and gave us a room at the back.  There was an amazing sunset that evening - and I was able to watch the "blood-orange sky" from our room.  We then walked over to The Cracker Barrell restaurant which was a few yards away.  We have been travelling around The States since the early 90's and have never tried a Cracker Barrell - what a delight we have missed.  We didn't want to get in the car to find somewhere to eat so went here.  It had a lovely, welcoming atmosphere and the food was absolutely delicious.  We had an extremely kind and efficient waitress.  I had pork (soooo tender) cooked in an apple and cranberry sauce - lovely vegetables - yum!  Back to the hotel; The room was very clean, the business center excellent with 2 computers and a printer.  The breakfast eating area good - again very clean - and there was a really neat pool area outside, nicely landscaped and surrounded by a pretty wrought iron fence.  The carpark was secure at the back.  I would have liked to have stayed an extra night here, but sadly our 3 week vacation was drawing to a close and we had to leave for the airport in the morning.  If you get the service we did, I can't recommend this Best Western highly enough!  Thank you for looking after us Tuesday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r136345370-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136345370</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>AWFUL HOTEL EXPERIENCE :0(</t>
+  </si>
+  <si>
+    <t>My husband and I are non-smokers.  Yet despite our original booking request, we and our children were stuck in a smoking room which reaked of old smoke fumes.  Every inch of the room was saturated with smoke.  Room 301 needs to be condemned.  It is completely unsanitary.  I repeatedly asked to be moved to a non-smoking room and I was told that I could not be accomodated.  The staff was extremely rude during our entire stay.  I also was not provided with linens for the sleeper sofa on my first night.  My head ached and I felt nauseous during my entire 4 night stay.  This was the 2d worse hotel experience I have ever had to endure.  It is right behind the terrible experience when I suffered an allergic reaction to bed bugs following a hotel stay.  I would not recommend that anyone suffer what my family had to endure at this awful, poorly run hotel.  Do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>My husband and I are non-smokers.  Yet despite our original booking request, we and our children were stuck in a smoking room which reaked of old smoke fumes.  Every inch of the room was saturated with smoke.  Room 301 needs to be condemned.  It is completely unsanitary.  I repeatedly asked to be moved to a non-smoking room and I was told that I could not be accomodated.  The staff was extremely rude during our entire stay.  I also was not provided with linens for the sleeper sofa on my first night.  My head ached and I felt nauseous during my entire 4 night stay.  This was the 2d worse hotel experience I have ever had to endure.  It is right behind the terrible experience when I suffered an allergic reaction to bed bugs following a hotel stay.  I would not recommend that anyone suffer what my family had to endure at this awful, poorly run hotel.  Do not stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r57714267-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57714267</t>
+  </si>
+  <si>
+    <t>03/04/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay if doing business north of Houston!</t>
+  </si>
+  <si>
+    <t>Pros:New and clean construction.Excellent check-in &amp; check-out experience.Great rate (around $65.00 per night)All rooms have micro-fridge.Easy to operate AC/Heat.A side sink (In addition to bathroom sink) with granite counter tops.Comfortable mattresses.Continental breakfast with all of the usual plus hot food items (waffles, eggs, etc.)Non-smoking room was truly a non-smoking room.  Room was quiet despite highway and airport traffic.  Cons:Instead of a thick comforter, there were was a semi-thick blanket (Not ideal for winter).Regular, non-digital or flat screen TV with several cable channels, but not all.  Located off a one-way frontage road off I-45.  Intermittent internet connectivity.  Overall:Highly recommended - I will definitely stay here if conducting business in north of Houston again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>Pros:New and clean construction.Excellent check-in &amp; check-out experience.Great rate (around $65.00 per night)All rooms have micro-fridge.Easy to operate AC/Heat.A side sink (In addition to bathroom sink) with granite counter tops.Comfortable mattresses.Continental breakfast with all of the usual plus hot food items (waffles, eggs, etc.)Non-smoking room was truly a non-smoking room.  Room was quiet despite highway and airport traffic.  Cons:Instead of a thick comforter, there were was a semi-thick blanket (Not ideal for winter).Regular, non-digital or flat screen TV with several cable channels, but not all.  Located off a one-way frontage road off I-45.  Intermittent internet connectivity.  Overall:Highly recommended - I will definitely stay here if conducting business in north of Houston again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r30821371-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>30821371</t>
+  </si>
+  <si>
+    <t>05/26/2009</t>
+  </si>
+  <si>
+    <t>Nice place and good location</t>
+  </si>
+  <si>
+    <t>I was in Houston on business and decided to stay here since it was only about 3 miles from my customer.   Overall the hotel is pretty nice.  My suite was nice and big and clean.    The internet connection was pretty good, however, at times it was somewhat slow.  There was easy access to I-45 so getting to restaurants was very easy.   The breakfast was about average with the usual cereals, breads, waffles, juices, coffee, etc.  The exercise room had an elliptical machine, a treadmill and a stationary bike, and no air conditioning.   One odd thing was that the door had to be unlocked by the staff since it did not have a card reader lock on it.  I did notice that a side entrance could be opened without using the keycard and brought this to the hotel's attention.  The man I spoke with was surprised to hear of this and said he would get it fixed.I would stay again if I had to be in this area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I was in Houston on business and decided to stay here since it was only about 3 miles from my customer.   Overall the hotel is pretty nice.  My suite was nice and big and clean.    The internet connection was pretty good, however, at times it was somewhat slow.  There was easy access to I-45 so getting to restaurants was very easy.   The breakfast was about average with the usual cereals, breads, waffles, juices, coffee, etc.  The exercise room had an elliptical machine, a treadmill and a stationary bike, and no air conditioning.   One odd thing was that the door had to be unlocked by the staff since it did not have a card reader lock on it.  I did notice that a side entrance could be opened without using the keycard and brought this to the hotel's attention.  The man I spoke with was surprised to hear of this and said he would get it fixed.I would stay again if I had to be in this area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r28166391-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>28166391</t>
+  </si>
+  <si>
+    <t>04/16/2009</t>
+  </si>
+  <si>
+    <t>Good location, close to the airport at a fair price</t>
+  </si>
+  <si>
+    <t>We only stayed the one night but found the location good, the room clean and most of all the staff were really friendly. The hotel has an 11 am checkout but our flight was not until 8 pm, the nice lady gave an extra hour on the room and we used the lobby and internet for another hour before heading back to return the car.There is a large Chinese buffet restaraunt just down the road and the hotel staff will give you directions.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r10242502-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10242502</t>
+  </si>
+  <si>
+    <t>10/22/2007</t>
+  </si>
+  <si>
+    <t>Worst Service I have ever gotten - crime ridden - Rude Lazy people</t>
+  </si>
+  <si>
+    <t>Staff told us to park around back- car was broken into and everything was stolen. WORST part of The area according to the police.  HIGH CRIME area, Staff was Willfully neglectful- offered no help whatsoever,  Rude- lazy and uncaring. Not family friendly,  Bring protection if you stay here.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d116265-r5909841-Best_Western_Plus_North_Houston_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5909841</t>
+  </si>
+  <si>
+    <t>10/03/2006</t>
+  </si>
+  <si>
+    <t>Great hotel near George Bush Airport</t>
+  </si>
+  <si>
+    <t>Great clean hotel, with big rooms.  Free high speed internet, free hot breakfast, Very convenient to George bush airport and the Greenspoint Business District, Staff was very helpful and courteous.  Awesome prices too!!!</t>
+  </si>
+  <si>
+    <t>September 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2634,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2666,7494 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>87</v>
+      </c>
+      <c r="X13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>153</v>
+      </c>
+      <c r="O23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>213</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>248</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s">
+        <v>259</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>262</v>
+      </c>
+      <c r="J36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" t="s">
+        <v>265</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>242</v>
+      </c>
+      <c r="O36" t="s">
+        <v>95</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" t="s">
+        <v>270</v>
+      </c>
+      <c r="L37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>242</v>
+      </c>
+      <c r="O37" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O38" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" t="s">
+        <v>288</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" t="s">
+        <v>160</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>295</v>
+      </c>
+      <c r="O41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>295</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>302</v>
+      </c>
+      <c r="J43" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" t="s">
+        <v>305</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>295</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>307</v>
+      </c>
+      <c r="J44" t="s">
+        <v>308</v>
+      </c>
+      <c r="K44" t="s">
+        <v>309</v>
+      </c>
+      <c r="L44" t="s">
+        <v>310</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>289</v>
+      </c>
+      <c r="O44" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>311</v>
+      </c>
+      <c r="X44" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>160</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" t="s">
+        <v>322</v>
+      </c>
+      <c r="L46" t="s">
+        <v>323</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>95</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s">
+        <v>329</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>324</v>
+      </c>
+      <c r="O47" t="s">
+        <v>95</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>324</v>
+      </c>
+      <c r="O48" t="s">
+        <v>160</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>336</v>
+      </c>
+      <c r="J49" t="s">
+        <v>337</v>
+      </c>
+      <c r="K49" t="s">
+        <v>338</v>
+      </c>
+      <c r="L49" t="s">
+        <v>339</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>324</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>341</v>
+      </c>
+      <c r="J50" t="s">
+        <v>342</v>
+      </c>
+      <c r="K50" t="s">
+        <v>343</v>
+      </c>
+      <c r="L50" t="s">
+        <v>344</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>324</v>
+      </c>
+      <c r="O50" t="s">
+        <v>95</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>345</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>346</v>
+      </c>
+      <c r="J51" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" t="s">
+        <v>348</v>
+      </c>
+      <c r="L51" t="s">
+        <v>349</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>350</v>
+      </c>
+      <c r="O51" t="s">
+        <v>95</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>351</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>352</v>
+      </c>
+      <c r="J52" t="s">
+        <v>353</v>
+      </c>
+      <c r="K52" t="s">
+        <v>354</v>
+      </c>
+      <c r="L52" t="s">
+        <v>355</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>356</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>357</v>
+      </c>
+      <c r="J53" t="s">
+        <v>358</v>
+      </c>
+      <c r="K53" t="s">
+        <v>359</v>
+      </c>
+      <c r="L53" t="s">
+        <v>360</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>350</v>
+      </c>
+      <c r="O53" t="s">
+        <v>95</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>361</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>362</v>
+      </c>
+      <c r="J54" t="s">
+        <v>363</v>
+      </c>
+      <c r="K54" t="s">
+        <v>364</v>
+      </c>
+      <c r="L54" t="s">
+        <v>365</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>350</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>366</v>
+      </c>
+      <c r="X54" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>370</v>
+      </c>
+      <c r="J55" t="s">
+        <v>371</v>
+      </c>
+      <c r="K55" t="s">
+        <v>372</v>
+      </c>
+      <c r="L55" t="s">
+        <v>373</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>350</v>
+      </c>
+      <c r="O55" t="s">
+        <v>95</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>374</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>375</v>
+      </c>
+      <c r="J56" t="s">
+        <v>376</v>
+      </c>
+      <c r="K56" t="s">
+        <v>377</v>
+      </c>
+      <c r="L56" t="s">
+        <v>378</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>379</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>380</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>381</v>
+      </c>
+      <c r="J57" t="s">
+        <v>382</v>
+      </c>
+      <c r="K57" t="s">
+        <v>383</v>
+      </c>
+      <c r="L57" t="s">
+        <v>384</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>379</v>
+      </c>
+      <c r="O57" t="s">
+        <v>160</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>385</v>
+      </c>
+      <c r="X57" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>389</v>
+      </c>
+      <c r="J58" t="s">
+        <v>390</v>
+      </c>
+      <c r="K58" t="s">
+        <v>133</v>
+      </c>
+      <c r="L58" t="s">
+        <v>391</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>392</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>385</v>
+      </c>
+      <c r="X58" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>394</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>395</v>
+      </c>
+      <c r="J59" t="s">
+        <v>396</v>
+      </c>
+      <c r="K59" t="s">
+        <v>397</v>
+      </c>
+      <c r="L59" t="s">
+        <v>398</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>392</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>400</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>401</v>
+      </c>
+      <c r="J60" t="s">
+        <v>402</v>
+      </c>
+      <c r="K60" t="s">
+        <v>403</v>
+      </c>
+      <c r="L60" t="s">
+        <v>404</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>392</v>
+      </c>
+      <c r="O60" t="s">
+        <v>160</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>405</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>406</v>
+      </c>
+      <c r="J61" t="s">
+        <v>407</v>
+      </c>
+      <c r="K61" t="s">
+        <v>408</v>
+      </c>
+      <c r="L61" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>392</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>410</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>411</v>
+      </c>
+      <c r="J62" t="s">
+        <v>412</v>
+      </c>
+      <c r="K62" t="s">
+        <v>413</v>
+      </c>
+      <c r="L62" t="s">
+        <v>414</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>392</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>415</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>416</v>
+      </c>
+      <c r="J63" t="s">
+        <v>417</v>
+      </c>
+      <c r="K63" t="s">
+        <v>418</v>
+      </c>
+      <c r="L63" t="s">
+        <v>419</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>392</v>
+      </c>
+      <c r="O63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>420</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>421</v>
+      </c>
+      <c r="J64" t="s">
+        <v>422</v>
+      </c>
+      <c r="K64" t="s">
+        <v>423</v>
+      </c>
+      <c r="L64" t="s">
+        <v>424</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>425</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>426</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>427</v>
+      </c>
+      <c r="J65" t="s">
+        <v>428</v>
+      </c>
+      <c r="K65" t="s">
+        <v>429</v>
+      </c>
+      <c r="L65" t="s">
+        <v>430</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>431</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>432</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>433</v>
+      </c>
+      <c r="J66" t="s">
+        <v>434</v>
+      </c>
+      <c r="K66" t="s">
+        <v>435</v>
+      </c>
+      <c r="L66" t="s">
+        <v>436</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>437</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>439</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>440</v>
+      </c>
+      <c r="J67" t="s">
+        <v>441</v>
+      </c>
+      <c r="K67" t="s">
+        <v>442</v>
+      </c>
+      <c r="L67" t="s">
+        <v>443</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>437</v>
+      </c>
+      <c r="O67" t="s">
+        <v>95</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>445</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>446</v>
+      </c>
+      <c r="J68" t="s">
+        <v>447</v>
+      </c>
+      <c r="K68" t="s">
+        <v>448</v>
+      </c>
+      <c r="L68" t="s">
+        <v>449</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>431</v>
+      </c>
+      <c r="O68" t="s">
+        <v>160</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>450</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>451</v>
+      </c>
+      <c r="J69" t="s">
+        <v>452</v>
+      </c>
+      <c r="K69" t="s">
+        <v>453</v>
+      </c>
+      <c r="L69" t="s">
+        <v>454</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>455</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>456</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>457</v>
+      </c>
+      <c r="J70" t="s">
+        <v>458</v>
+      </c>
+      <c r="K70" t="s">
+        <v>459</v>
+      </c>
+      <c r="L70" t="s">
+        <v>460</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>455</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>461</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>462</v>
+      </c>
+      <c r="J71" t="s">
+        <v>463</v>
+      </c>
+      <c r="K71" t="s">
+        <v>464</v>
+      </c>
+      <c r="L71" t="s">
+        <v>465</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>466</v>
+      </c>
+      <c r="O71" t="s">
+        <v>62</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>468</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>469</v>
+      </c>
+      <c r="J72" t="s">
+        <v>470</v>
+      </c>
+      <c r="K72" t="s">
+        <v>471</v>
+      </c>
+      <c r="L72" t="s">
+        <v>472</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>466</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>473</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>474</v>
+      </c>
+      <c r="J73" t="s">
+        <v>475</v>
+      </c>
+      <c r="K73" t="s">
+        <v>476</v>
+      </c>
+      <c r="L73" t="s">
+        <v>477</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>478</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>479</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>480</v>
+      </c>
+      <c r="J74" t="s">
+        <v>481</v>
+      </c>
+      <c r="K74" t="s">
+        <v>482</v>
+      </c>
+      <c r="L74" t="s">
+        <v>483</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>484</v>
+      </c>
+      <c r="O74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>485</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>486</v>
+      </c>
+      <c r="J75" t="s">
+        <v>487</v>
+      </c>
+      <c r="K75" t="s">
+        <v>488</v>
+      </c>
+      <c r="L75" t="s">
+        <v>489</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>484</v>
+      </c>
+      <c r="O75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>490</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>491</v>
+      </c>
+      <c r="J76" t="s">
+        <v>492</v>
+      </c>
+      <c r="K76" t="s">
+        <v>493</v>
+      </c>
+      <c r="L76" t="s">
+        <v>494</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>484</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>495</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>496</v>
+      </c>
+      <c r="J77" t="s">
+        <v>497</v>
+      </c>
+      <c r="K77" t="s">
+        <v>498</v>
+      </c>
+      <c r="L77" t="s">
+        <v>499</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>500</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>501</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>502</v>
+      </c>
+      <c r="J78" t="s">
+        <v>503</v>
+      </c>
+      <c r="K78" t="s">
+        <v>504</v>
+      </c>
+      <c r="L78" t="s">
+        <v>505</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>506</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>507</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>508</v>
+      </c>
+      <c r="J79" t="s">
+        <v>509</v>
+      </c>
+      <c r="K79" t="s">
+        <v>510</v>
+      </c>
+      <c r="L79" t="s">
+        <v>511</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>512</v>
+      </c>
+      <c r="O79" t="s">
+        <v>95</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>513</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>514</v>
+      </c>
+      <c r="J80" t="s">
+        <v>515</v>
+      </c>
+      <c r="K80" t="s">
+        <v>516</v>
+      </c>
+      <c r="L80" t="s">
+        <v>517</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>518</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>519</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>520</v>
+      </c>
+      <c r="J81" t="s">
+        <v>521</v>
+      </c>
+      <c r="K81" t="s">
+        <v>522</v>
+      </c>
+      <c r="L81" t="s">
+        <v>523</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>518</v>
+      </c>
+      <c r="O81" t="s">
+        <v>95</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>524</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>525</v>
+      </c>
+      <c r="J82" t="s">
+        <v>526</v>
+      </c>
+      <c r="K82" t="s">
+        <v>527</v>
+      </c>
+      <c r="L82" t="s">
+        <v>528</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>518</v>
+      </c>
+      <c r="O82" t="s">
+        <v>95</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>529</v>
+      </c>
+      <c r="X82" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>532</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>533</v>
+      </c>
+      <c r="J83" t="s">
+        <v>534</v>
+      </c>
+      <c r="K83" t="s">
+        <v>535</v>
+      </c>
+      <c r="L83" t="s">
+        <v>536</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>537</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>538</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>539</v>
+      </c>
+      <c r="J84" t="s">
+        <v>540</v>
+      </c>
+      <c r="K84" t="s">
+        <v>541</v>
+      </c>
+      <c r="L84" t="s">
+        <v>542</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>543</v>
+      </c>
+      <c r="O84" t="s">
+        <v>78</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>544</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>545</v>
+      </c>
+      <c r="J85" t="s">
+        <v>546</v>
+      </c>
+      <c r="K85" t="s">
+        <v>547</v>
+      </c>
+      <c r="L85" t="s">
+        <v>548</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>543</v>
+      </c>
+      <c r="O85" t="s">
+        <v>95</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>549</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>550</v>
+      </c>
+      <c r="J86" t="s">
+        <v>551</v>
+      </c>
+      <c r="K86" t="s">
+        <v>552</v>
+      </c>
+      <c r="L86" t="s">
+        <v>553</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>554</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>555</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>556</v>
+      </c>
+      <c r="J87" t="s">
+        <v>557</v>
+      </c>
+      <c r="K87" t="s">
+        <v>558</v>
+      </c>
+      <c r="L87" t="s">
+        <v>559</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>560</v>
+      </c>
+      <c r="O87" t="s">
+        <v>95</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>561</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>562</v>
+      </c>
+      <c r="J88" t="s">
+        <v>563</v>
+      </c>
+      <c r="K88" t="s">
+        <v>564</v>
+      </c>
+      <c r="L88" t="s">
+        <v>565</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>566</v>
+      </c>
+      <c r="O88" t="s">
+        <v>95</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>567</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>568</v>
+      </c>
+      <c r="J89" t="s">
+        <v>569</v>
+      </c>
+      <c r="K89" t="s">
+        <v>570</v>
+      </c>
+      <c r="L89" t="s">
+        <v>571</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>572</v>
+      </c>
+      <c r="O89" t="s">
+        <v>95</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>573</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>574</v>
+      </c>
+      <c r="J90" t="s">
+        <v>575</v>
+      </c>
+      <c r="K90" t="s">
+        <v>576</v>
+      </c>
+      <c r="L90" t="s">
+        <v>577</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>578</v>
+      </c>
+      <c r="O90" t="s">
+        <v>62</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>579</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>580</v>
+      </c>
+      <c r="J91" t="s">
+        <v>581</v>
+      </c>
+      <c r="K91" t="s">
+        <v>582</v>
+      </c>
+      <c r="L91" t="s">
+        <v>583</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>584</v>
+      </c>
+      <c r="O91" t="s">
+        <v>95</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>585</v>
+      </c>
+      <c r="X91" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>588</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>589</v>
+      </c>
+      <c r="J92" t="s">
+        <v>590</v>
+      </c>
+      <c r="K92" t="s">
+        <v>591</v>
+      </c>
+      <c r="L92" t="s">
+        <v>592</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>593</v>
+      </c>
+      <c r="O92" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>595</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>596</v>
+      </c>
+      <c r="J93" t="s">
+        <v>597</v>
+      </c>
+      <c r="K93" t="s">
+        <v>598</v>
+      </c>
+      <c r="L93" t="s">
+        <v>599</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>600</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>601</v>
+      </c>
+      <c r="X93" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>605</v>
+      </c>
+      <c r="J94" t="s">
+        <v>606</v>
+      </c>
+      <c r="K94" t="s">
+        <v>607</v>
+      </c>
+      <c r="L94" t="s">
+        <v>608</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>600</v>
+      </c>
+      <c r="O94" t="s">
+        <v>95</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>609</v>
+      </c>
+      <c r="X94" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>612</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>613</v>
+      </c>
+      <c r="J95" t="s">
+        <v>614</v>
+      </c>
+      <c r="K95" t="s">
+        <v>615</v>
+      </c>
+      <c r="L95" t="s">
+        <v>616</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>617</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>618</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>619</v>
+      </c>
+      <c r="J96" t="s">
+        <v>620</v>
+      </c>
+      <c r="K96" t="s">
+        <v>621</v>
+      </c>
+      <c r="L96" t="s">
+        <v>622</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>617</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>623</v>
+      </c>
+      <c r="X96" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>626</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>627</v>
+      </c>
+      <c r="J97" t="s">
+        <v>620</v>
+      </c>
+      <c r="K97" t="s">
+        <v>552</v>
+      </c>
+      <c r="L97" t="s">
+        <v>628</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>600</v>
+      </c>
+      <c r="O97" t="s">
+        <v>62</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>623</v>
+      </c>
+      <c r="X97" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>630</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>631</v>
+      </c>
+      <c r="J98" t="s">
+        <v>632</v>
+      </c>
+      <c r="K98" t="s">
+        <v>633</v>
+      </c>
+      <c r="L98" t="s">
+        <v>634</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>617</v>
+      </c>
+      <c r="O98" t="s">
+        <v>95</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>635</v>
+      </c>
+      <c r="X98" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>638</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>639</v>
+      </c>
+      <c r="J99" t="s">
+        <v>640</v>
+      </c>
+      <c r="K99" t="s">
+        <v>641</v>
+      </c>
+      <c r="L99" t="s">
+        <v>642</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>617</v>
+      </c>
+      <c r="O99" t="s">
+        <v>95</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>643</v>
+      </c>
+      <c r="X99" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>646</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>647</v>
+      </c>
+      <c r="J100" t="s">
+        <v>648</v>
+      </c>
+      <c r="K100" t="s">
+        <v>649</v>
+      </c>
+      <c r="L100" t="s">
+        <v>650</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>651</v>
+      </c>
+      <c r="O100" t="s">
+        <v>160</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>652</v>
+      </c>
+      <c r="X100" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>655</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>656</v>
+      </c>
+      <c r="J101" t="s">
+        <v>657</v>
+      </c>
+      <c r="K101" t="s">
+        <v>658</v>
+      </c>
+      <c r="L101" t="s">
+        <v>659</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>660</v>
+      </c>
+      <c r="O101" t="s">
+        <v>78</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>662</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>663</v>
+      </c>
+      <c r="J102" t="s">
+        <v>664</v>
+      </c>
+      <c r="K102" t="s">
+        <v>665</v>
+      </c>
+      <c r="L102" t="s">
+        <v>666</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>660</v>
+      </c>
+      <c r="O102" t="s">
+        <v>95</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>667</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>668</v>
+      </c>
+      <c r="J103" t="s">
+        <v>669</v>
+      </c>
+      <c r="K103" t="s">
+        <v>498</v>
+      </c>
+      <c r="L103" t="s">
+        <v>670</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>671</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>672</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>673</v>
+      </c>
+      <c r="J104" t="s">
+        <v>674</v>
+      </c>
+      <c r="K104" t="s">
+        <v>675</v>
+      </c>
+      <c r="L104" t="s">
+        <v>676</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>678</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>679</v>
+      </c>
+      <c r="J105" t="s">
+        <v>680</v>
+      </c>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>681</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>682</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>683</v>
+      </c>
+      <c r="J106" t="s">
+        <v>684</v>
+      </c>
+      <c r="K106" t="s">
+        <v>685</v>
+      </c>
+      <c r="L106" t="s">
+        <v>686</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>687</v>
+      </c>
+      <c r="O106" t="s">
+        <v>95</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>688</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>689</v>
+      </c>
+      <c r="J107" t="s">
+        <v>690</v>
+      </c>
+      <c r="K107" t="s">
+        <v>691</v>
+      </c>
+      <c r="L107" t="s">
+        <v>692</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>693</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>694</v>
+      </c>
+      <c r="J108" t="s">
+        <v>695</v>
+      </c>
+      <c r="K108" t="s">
+        <v>696</v>
+      </c>
+      <c r="L108" t="s">
+        <v>697</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>698</v>
+      </c>
+      <c r="O108" t="s">
+        <v>62</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>700</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>701</v>
+      </c>
+      <c r="J109" t="s">
+        <v>702</v>
+      </c>
+      <c r="K109" t="s">
+        <v>703</v>
+      </c>
+      <c r="L109" t="s">
+        <v>704</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>705</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>707</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>708</v>
+      </c>
+      <c r="J110" t="s">
+        <v>709</v>
+      </c>
+      <c r="K110" t="s">
+        <v>710</v>
+      </c>
+      <c r="L110" t="s">
+        <v>711</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>712</v>
+      </c>
+      <c r="O110" t="s">
+        <v>95</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>714</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>715</v>
+      </c>
+      <c r="J111" t="s">
+        <v>716</v>
+      </c>
+      <c r="K111" t="s">
+        <v>717</v>
+      </c>
+      <c r="L111" t="s">
+        <v>718</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>719</v>
+      </c>
+      <c r="O111" t="s">
+        <v>95</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>721</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>722</v>
+      </c>
+      <c r="J112" t="s">
+        <v>723</v>
+      </c>
+      <c r="K112" t="s">
+        <v>724</v>
+      </c>
+      <c r="L112" t="s">
+        <v>725</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>726</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>727</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>728</v>
+      </c>
+      <c r="J113" t="s">
+        <v>729</v>
+      </c>
+      <c r="K113" t="s">
+        <v>730</v>
+      </c>
+      <c r="L113" t="s">
+        <v>731</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>732</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>38304</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>733</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>734</v>
+      </c>
+      <c r="J114" t="s">
+        <v>735</v>
+      </c>
+      <c r="K114" t="s">
+        <v>736</v>
+      </c>
+      <c r="L114" t="s">
+        <v>737</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>738</v>
+      </c>
+      <c r="O114" t="s">
+        <v>95</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
